--- a/backend/backend-timelog.xlsx
+++ b/backend/backend-timelog.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t xml:space="preserve">Total hours:</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t xml:space="preserve">Bäkkäri ohjelmointi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logiikan kartoitus</t>
   </si>
 </sst>
 </file>
@@ -127,7 +130,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -149,6 +152,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -275,10 +282,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -292,7 +299,7 @@
       </c>
       <c r="B1" s="1" t="n">
         <f aca="false">SUM(D:D)</f>
-        <v>0.107638888888889</v>
+        <v>0.232638888888889</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -338,7 +345,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="n">
-        <v>46035</v>
+        <v>46034</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>0.770833333333333</v>
@@ -355,6 +362,69 @@
       </c>
       <c r="F5" s="3" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="n">
+        <v>46035</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <f aca="false">C6-B6</f>
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="n">
+        <v>46037</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <f aca="false">C7-B7</f>
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="n">
+        <v>46038</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <f aca="false">C8-B8</f>
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/backend/backend-timelog.xlsx
+++ b/backend/backend-timelog.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t xml:space="preserve">Total hours:</t>
   </si>
@@ -130,7 +130,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -152,10 +152,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -282,10 +278,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -299,7 +295,7 @@
       </c>
       <c r="B1" s="1" t="n">
         <f aca="false">SUM(D:D)</f>
-        <v>0.232638888888889</v>
+        <v>0.399305555555556</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -386,7 +382,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="n">
+      <c r="A7" s="4" t="n">
         <v>46037</v>
       </c>
       <c r="B7" s="1" t="n">
@@ -399,15 +395,15 @@
         <f aca="false">C7-B7</f>
         <v>0.0416666666666667</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="0" t="s">
+      <c r="E7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="n">
+      <c r="A8" s="4" t="n">
         <v>46038</v>
       </c>
       <c r="B8" s="1" t="n">
@@ -420,10 +416,31 @@
         <f aca="false">C8-B8</f>
         <v>0.0416666666666667</v>
       </c>
-      <c r="E8" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="0" t="s">
+      <c r="E8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="n">
+        <v>46038</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <f aca="false">C9-B9</f>
+        <v>0.166666666666667</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>10</v>
       </c>
     </row>

--- a/backend/backend-timelog.xlsx
+++ b/backend/backend-timelog.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
   <si>
     <t xml:space="preserve">Total hours:</t>
   </si>
@@ -282,10 +282,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
+      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -299,7 +299,7 @@
       </c>
       <c r="B1" s="1" t="n">
         <f aca="false">SUM(D:D)</f>
-        <v>0.576388888888889</v>
+        <v>0.888888888888889</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -449,7 +449,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="n">
+      <c r="A10" s="4" t="n">
         <v>-647921</v>
       </c>
       <c r="B10" s="1" t="n">
@@ -466,6 +466,69 @@
         <v>7</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="n">
+        <v>46041</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <f aca="false">C11-B11</f>
+        <v>0.104166666666667</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="n">
+        <v>46042</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <f aca="false">C12-B12</f>
+        <v>0.125</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="n">
+        <v>46042</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <f aca="false">C13-B13</f>
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>9</v>
       </c>
     </row>
